--- a/src/main/resources/测试.xlsx
+++ b/src/main/resources/测试.xlsx
@@ -16,14 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="58">
   <si>
     <t>问卷信息</t>
   </si>
   <si>
-    <t>个人信息</t>
-  </si>
-  <si>
     <t>题目详情</t>
   </si>
   <si>
@@ -45,33 +42,30 @@
     <t>问卷描述</t>
   </si>
   <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>题目名称</t>
+  </si>
+  <si>
+    <t>题目类型</t>
+  </si>
+  <si>
+    <t>选项1</t>
+  </si>
+  <si>
+    <t>选项2</t>
+  </si>
+  <si>
+    <t>选项3</t>
+  </si>
+  <si>
+    <t>选项4</t>
+  </si>
+  <si>
     <t>姓名</t>
   </si>
   <si>
-    <t>手机号</t>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>题目名称</t>
-  </si>
-  <si>
-    <t>题目类型</t>
-  </si>
-  <si>
-    <t>选项1</t>
-  </si>
-  <si>
-    <t>选项2</t>
-  </si>
-  <si>
-    <t>选项3</t>
-  </si>
-  <si>
-    <t>选项4</t>
-  </si>
-  <si>
     <t>手机</t>
   </si>
   <si>
@@ -81,19 +75,19 @@
     <t>满意度</t>
   </si>
   <si>
+    <t>sout</t>
+  </si>
+  <si>
+    <t>题目2</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
     <t>题目1</t>
-  </si>
-  <si>
-    <t>题目2</t>
-  </si>
-  <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>cc</t>
   </si>
   <si>
     <t>单选</t>
@@ -1129,20 +1123,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="7" max="7" width="12.8181818181818"/>
-    <col min="16" max="16" width="24.7272727272727" customWidth="1"/>
-    <col min="17" max="17" width="23.5454545454545" customWidth="1"/>
+    <col min="14" max="14" width="24.7272727272727" customWidth="1"/>
+    <col min="15" max="15" width="23.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1154,67 +1147,63 @@
         <v>1</v>
       </c>
       <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>16</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>17</v>
-      </c>
-      <c r="O2" t="s">
-        <v>9</v>
       </c>
       <c r="P2" t="s">
         <v>18</v>
@@ -1225,34 +1214,28 @@
       <c r="R2" t="s">
         <v>20</v>
       </c>
-      <c r="S2" t="s">
-        <v>21</v>
-      </c>
-      <c r="T2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3">
-        <v>15895060076</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
         <v>26</v>
@@ -1266,34 +1249,43 @@
       <c r="M3" t="s">
         <v>29</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3">
+        <v>17156898745</v>
+      </c>
+      <c r="O3" t="s">
         <v>30</v>
       </c>
-      <c r="O3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3">
-        <v>17156898745</v>
+      <c r="P3" t="s">
+        <v>31</v>
       </c>
       <c r="Q3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="R3" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="8:20">
-      <c r="H4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4">
         <v>2</v>
       </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J4" t="s">
         <v>26</v>
@@ -1305,36 +1297,45 @@
         <v>28</v>
       </c>
       <c r="M4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4">
+        <v>17156898745</v>
+      </c>
+      <c r="O4" t="s">
         <v>30</v>
       </c>
-      <c r="O4" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4">
-        <v>17156898745</v>
+      <c r="P4" t="s">
+        <v>31</v>
       </c>
       <c r="Q4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="R4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
         <v>33</v>
       </c>
-      <c r="S4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="8:20">
-      <c r="H5">
-        <v>3</v>
+      <c r="H5" t="s">
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J5" t="s">
         <v>26</v>
@@ -1346,36 +1347,45 @@
         <v>28</v>
       </c>
       <c r="M5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5">
+        <v>17156898745</v>
+      </c>
+      <c r="O5" t="s">
         <v>30</v>
       </c>
-      <c r="O5" t="s">
-        <v>36</v>
-      </c>
-      <c r="P5">
-        <v>17156898745</v>
+      <c r="P5" t="s">
+        <v>31</v>
       </c>
       <c r="Q5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="R5" t="s">
-        <v>33</v>
-      </c>
-      <c r="S5" t="s">
-        <v>27</v>
-      </c>
-      <c r="T5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="8:20">
-      <c r="H6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6">
         <v>4</v>
       </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="J6" t="s">
         <v>26</v>
@@ -1387,36 +1397,45 @@
         <v>28</v>
       </c>
       <c r="M6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6">
+        <v>17156898745</v>
+      </c>
+      <c r="O6" t="s">
         <v>30</v>
       </c>
-      <c r="O6" t="s">
-        <v>38</v>
-      </c>
-      <c r="P6">
-        <v>17156898745</v>
+      <c r="P6" t="s">
+        <v>31</v>
       </c>
       <c r="Q6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="R6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S6" t="s">
-        <v>27</v>
-      </c>
-      <c r="T6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="8:20">
-      <c r="H7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7">
         <v>5</v>
       </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="J7" t="s">
         <v>26</v>
@@ -1428,36 +1447,45 @@
         <v>28</v>
       </c>
       <c r="M7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7">
+        <v>17156898745</v>
+      </c>
+      <c r="O7" t="s">
         <v>30</v>
       </c>
-      <c r="O7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P7">
-        <v>17156898745</v>
+      <c r="P7" t="s">
+        <v>31</v>
       </c>
       <c r="Q7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="R7" t="s">
-        <v>33</v>
-      </c>
-      <c r="S7" t="s">
-        <v>27</v>
-      </c>
-      <c r="T7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="8:20">
-      <c r="H8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8">
         <v>6</v>
       </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
       <c r="I8" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="J8" t="s">
         <v>26</v>
@@ -1469,39 +1497,48 @@
         <v>28</v>
       </c>
       <c r="M8" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8">
+        <v>17156898745</v>
+      </c>
+      <c r="O8" t="s">
         <v>30</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>25</v>
+      </c>
+      <c r="R8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
         <v>42</v>
       </c>
-      <c r="P8">
-        <v>17156898745</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>32</v>
-      </c>
-      <c r="R8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S8" t="s">
-        <v>27</v>
-      </c>
-      <c r="T8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="8:20">
-      <c r="H9">
-        <v>7</v>
-      </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="K9" t="s">
         <v>27</v>
@@ -1510,39 +1547,48 @@
         <v>28</v>
       </c>
       <c r="M9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9">
+        <v>17156898745</v>
+      </c>
+      <c r="O9" t="s">
         <v>30</v>
       </c>
-      <c r="O9" t="s">
-        <v>45</v>
-      </c>
-      <c r="P9">
-        <v>17156898745</v>
+      <c r="P9" t="s">
+        <v>31</v>
       </c>
       <c r="Q9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="R9" t="s">
-        <v>33</v>
-      </c>
-      <c r="S9" t="s">
-        <v>27</v>
-      </c>
-      <c r="T9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="8:20">
-      <c r="H10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10">
         <v>8</v>
       </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="K10" t="s">
         <v>27</v>
@@ -1551,39 +1597,48 @@
         <v>28</v>
       </c>
       <c r="M10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10">
+        <v>17156898745</v>
+      </c>
+      <c r="O10" t="s">
         <v>30</v>
       </c>
-      <c r="O10" t="s">
-        <v>47</v>
-      </c>
-      <c r="P10">
-        <v>17156898745</v>
+      <c r="P10" t="s">
+        <v>31</v>
       </c>
       <c r="Q10" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="R10" t="s">
-        <v>33</v>
-      </c>
-      <c r="S10" t="s">
-        <v>27</v>
-      </c>
-      <c r="T10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="8:20">
-      <c r="H11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11">
         <v>9</v>
       </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
       <c r="I11" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="K11" t="s">
         <v>27</v>
@@ -1592,39 +1647,48 @@
         <v>28</v>
       </c>
       <c r="M11" t="s">
-        <v>29</v>
-      </c>
-      <c r="N11" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11">
+        <v>17156898745</v>
+      </c>
+      <c r="O11" t="s">
         <v>30</v>
       </c>
-      <c r="O11" t="s">
-        <v>49</v>
-      </c>
-      <c r="P11">
-        <v>17156898745</v>
+      <c r="P11" t="s">
+        <v>31</v>
       </c>
       <c r="Q11" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="R11" t="s">
-        <v>33</v>
-      </c>
-      <c r="S11" t="s">
-        <v>27</v>
-      </c>
-      <c r="T11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="8:20">
-      <c r="H12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12">
         <v>10</v>
       </c>
+      <c r="G12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
       <c r="I12" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="K12" t="s">
         <v>27</v>
@@ -1633,116 +1697,145 @@
         <v>28</v>
       </c>
       <c r="M12" t="s">
-        <v>29</v>
-      </c>
-      <c r="N12" t="s">
+        <v>49</v>
+      </c>
+      <c r="N12">
+        <v>17156898745</v>
+      </c>
+      <c r="O12" t="s">
         <v>30</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>25</v>
+      </c>
+      <c r="R12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" t="s">
+        <v>50</v>
+      </c>
+      <c r="N13">
+        <v>17156898746</v>
+      </c>
+      <c r="O13" t="s">
         <v>51</v>
       </c>
-      <c r="P12">
-        <v>17156898745</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>32</v>
-      </c>
-      <c r="R12" t="s">
-        <v>33</v>
-      </c>
-      <c r="S12" t="s">
-        <v>27</v>
-      </c>
-      <c r="T12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="15:20">
-      <c r="O13" t="s">
+      <c r="P13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>25</v>
+      </c>
+      <c r="R13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" t="s">
         <v>52</v>
       </c>
-      <c r="P13">
-        <v>17156898746</v>
-      </c>
-      <c r="Q13" t="s">
+      <c r="N14">
+        <v>17156898747</v>
+      </c>
+      <c r="O14" t="s">
         <v>53</v>
       </c>
-      <c r="R13" t="s">
-        <v>33</v>
-      </c>
-      <c r="S13" t="s">
-        <v>27</v>
-      </c>
-      <c r="T13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="15:20">
-      <c r="O14" t="s">
+      <c r="P14" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>25</v>
+      </c>
+      <c r="R14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" t="s">
         <v>54</v>
       </c>
-      <c r="P14">
-        <v>17156898747</v>
-      </c>
-      <c r="Q14" t="s">
+      <c r="N15">
+        <v>17156898748</v>
+      </c>
+      <c r="O15" t="s">
         <v>55</v>
       </c>
-      <c r="R14" t="s">
-        <v>33</v>
-      </c>
-      <c r="S14" t="s">
-        <v>27</v>
-      </c>
-      <c r="T14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="15:20">
-      <c r="O15" t="s">
+      <c r="P15" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>25</v>
+      </c>
+      <c r="R15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" t="s">
         <v>56</v>
       </c>
-      <c r="P15">
-        <v>17156898748</v>
-      </c>
-      <c r="Q15" t="s">
+      <c r="N16">
+        <v>17156898749</v>
+      </c>
+      <c r="O16" t="s">
         <v>57</v>
       </c>
-      <c r="R15" t="s">
-        <v>33</v>
-      </c>
-      <c r="S15" t="s">
-        <v>27</v>
-      </c>
-      <c r="T15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="15:20">
-      <c r="O16" t="s">
-        <v>58</v>
-      </c>
-      <c r="P16">
-        <v>17156898749</v>
+      <c r="P16" t="s">
+        <v>31</v>
       </c>
       <c r="Q16" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="R16" t="s">
-        <v>33</v>
-      </c>
-      <c r="S16" t="s">
-        <v>27</v>
-      </c>
-      <c r="T16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:N1"/>
-    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="M1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1753,14 +1846,716 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A16" sqref="$A16:$XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3">
+        <v>17156898745</v>
+      </c>
+      <c r="O3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4">
+        <v>17156898745</v>
+      </c>
+      <c r="O4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5">
+        <v>17156898745</v>
+      </c>
+      <c r="O5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6">
+        <v>17156898745</v>
+      </c>
+      <c r="O6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>25</v>
+      </c>
+      <c r="R6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7">
+        <v>17156898745</v>
+      </c>
+      <c r="O7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>25</v>
+      </c>
+      <c r="R7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8">
+        <v>17156898745</v>
+      </c>
+      <c r="O8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>25</v>
+      </c>
+      <c r="R8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9">
+        <v>17156898745</v>
+      </c>
+      <c r="O9" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>25</v>
+      </c>
+      <c r="R9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10">
+        <v>17156898745</v>
+      </c>
+      <c r="O10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>25</v>
+      </c>
+      <c r="R10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11">
+        <v>17156898745</v>
+      </c>
+      <c r="O11" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>25</v>
+      </c>
+      <c r="R11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" t="s">
+        <v>49</v>
+      </c>
+      <c r="N12">
+        <v>17156898745</v>
+      </c>
+      <c r="O12" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>25</v>
+      </c>
+      <c r="R12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" t="s">
+        <v>50</v>
+      </c>
+      <c r="N13">
+        <v>17156898746</v>
+      </c>
+      <c r="O13" t="s">
+        <v>51</v>
+      </c>
+      <c r="P13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>25</v>
+      </c>
+      <c r="R13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" t="s">
+        <v>52</v>
+      </c>
+      <c r="N14">
+        <v>17156898747</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>25</v>
+      </c>
+      <c r="R14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" t="s">
+        <v>54</v>
+      </c>
+      <c r="N15">
+        <v>17156898748</v>
+      </c>
+      <c r="O15" t="s">
+        <v>55</v>
+      </c>
+      <c r="P15" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>25</v>
+      </c>
+      <c r="R15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" t="s">
+        <v>56</v>
+      </c>
+      <c r="N16">
+        <v>17156898749</v>
+      </c>
+      <c r="O16" t="s">
+        <v>57</v>
+      </c>
+      <c r="P16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>25</v>
+      </c>
+      <c r="R16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="M1:P1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1770,14 +2565,716 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3">
+        <v>17156898745</v>
+      </c>
+      <c r="O3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4">
+        <v>17156898745</v>
+      </c>
+      <c r="O4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5">
+        <v>17156898745</v>
+      </c>
+      <c r="O5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6">
+        <v>17156898745</v>
+      </c>
+      <c r="O6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>25</v>
+      </c>
+      <c r="R6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7">
+        <v>17156898745</v>
+      </c>
+      <c r="O7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>25</v>
+      </c>
+      <c r="R7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8">
+        <v>17156898745</v>
+      </c>
+      <c r="O8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>25</v>
+      </c>
+      <c r="R8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9">
+        <v>17156898745</v>
+      </c>
+      <c r="O9" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>25</v>
+      </c>
+      <c r="R9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10">
+        <v>17156898745</v>
+      </c>
+      <c r="O10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>25</v>
+      </c>
+      <c r="R10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11">
+        <v>17156898745</v>
+      </c>
+      <c r="O11" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>25</v>
+      </c>
+      <c r="R11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" t="s">
+        <v>49</v>
+      </c>
+      <c r="N12">
+        <v>17156898745</v>
+      </c>
+      <c r="O12" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>25</v>
+      </c>
+      <c r="R12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" t="s">
+        <v>50</v>
+      </c>
+      <c r="N13">
+        <v>17156898746</v>
+      </c>
+      <c r="O13" t="s">
+        <v>51</v>
+      </c>
+      <c r="P13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>25</v>
+      </c>
+      <c r="R13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" t="s">
+        <v>52</v>
+      </c>
+      <c r="N14">
+        <v>17156898747</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>25</v>
+      </c>
+      <c r="R14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" t="s">
+        <v>54</v>
+      </c>
+      <c r="N15">
+        <v>17156898748</v>
+      </c>
+      <c r="O15" t="s">
+        <v>55</v>
+      </c>
+      <c r="P15" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>25</v>
+      </c>
+      <c r="R15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" t="s">
+        <v>56</v>
+      </c>
+      <c r="N16">
+        <v>17156898749</v>
+      </c>
+      <c r="O16" t="s">
+        <v>57</v>
+      </c>
+      <c r="P16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>25</v>
+      </c>
+      <c r="R16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="M1:P1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
